--- a/artfynd/A 5106-2021.xlsx
+++ b/artfynd/A 5106-2021.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>112381899</v>
+        <v>112381898</v>
       </c>
       <c r="B2" t="n">
-        <v>89559</v>
+        <v>90837</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,21 +696,21 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>5442</v>
+        <v>5966</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Tallticka</t>
+          <t>Motaggsvamp</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Porodaedalea pini</t>
+          <t>Sarcodon squamosus</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Brot.) Murrill</t>
+          <t>(Schaeff.) Quél.</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -720,10 +720,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>608138</v>
+        <v>608205</v>
       </c>
       <c r="R2" t="n">
-        <v>7225544</v>
+        <v>7225442</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -789,7 +789,7 @@
         <v>112381885</v>
       </c>
       <c r="B3" t="n">
-        <v>90816</v>
+        <v>90830</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -892,10 +892,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>112381887</v>
+        <v>112381886</v>
       </c>
       <c r="B4" t="n">
-        <v>90816</v>
+        <v>90802</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -904,25 +904,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>2059</v>
+        <v>149</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Tallgråticka</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Boletopsis grisea</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(Peck) Bondartsev &amp; Singer</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -932,10 +932,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>608478</v>
+        <v>608475</v>
       </c>
       <c r="R4" t="n">
-        <v>7225440</v>
+        <v>7225446</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -998,10 +998,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>112381898</v>
+        <v>112381887</v>
       </c>
       <c r="B5" t="n">
-        <v>90823</v>
+        <v>90830</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1014,21 +1014,21 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>5966</v>
+        <v>2059</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Motaggsvamp</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Sarcodon squamosus</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Schaeff.) Quél.</t>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1038,10 +1038,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>608205</v>
+        <v>608478</v>
       </c>
       <c r="R5" t="n">
-        <v>7225442</v>
+        <v>7225440</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1104,10 +1104,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>112381884</v>
+        <v>112381899</v>
       </c>
       <c r="B6" t="n">
-        <v>77636</v>
+        <v>89573</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1120,21 +1120,21 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>6425</v>
+        <v>5442</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tallticka</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Porodaedalea pini</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Brot.) Murrill</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1144,10 +1144,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>608527</v>
+        <v>608138</v>
       </c>
       <c r="R6" t="n">
-        <v>7225507</v>
+        <v>7225544</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1210,10 +1210,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>112381886</v>
+        <v>112381884</v>
       </c>
       <c r="B7" t="n">
-        <v>90788</v>
+        <v>77650</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1222,25 +1222,25 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>149</v>
+        <v>6425</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Tallgråticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Boletopsis grisea</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Peck) Bondartsev &amp; Singer</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1250,10 +1250,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>608475</v>
+        <v>608527</v>
       </c>
       <c r="R7" t="n">
-        <v>7225446</v>
+        <v>7225507</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1319,7 +1319,7 @@
         <v>112381883</v>
       </c>
       <c r="B8" t="n">
-        <v>90816</v>
+        <v>90830</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>

--- a/artfynd/A 5106-2021.xlsx
+++ b/artfynd/A 5106-2021.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>112381898</v>
+        <v>112381884</v>
       </c>
       <c r="B2" t="n">
-        <v>90837</v>
+        <v>77650</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,21 +696,21 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>5966</v>
+        <v>6425</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Motaggsvamp</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Sarcodon squamosus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Schaeff.) Quél.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -720,10 +720,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>608205</v>
+        <v>608527</v>
       </c>
       <c r="R2" t="n">
-        <v>7225442</v>
+        <v>7225507</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -786,10 +786,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>112381885</v>
+        <v>112381898</v>
       </c>
       <c r="B3" t="n">
-        <v>90830</v>
+        <v>90837</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -802,21 +802,21 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>2059</v>
+        <v>5966</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Motaggsvamp</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Sarcodon squamosus</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(Schaeff.) Quél.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -826,10 +826,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>608518</v>
+        <v>608205</v>
       </c>
       <c r="R3" t="n">
-        <v>7225539</v>
+        <v>7225442</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -998,7 +998,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>112381887</v>
+        <v>112381883</v>
       </c>
       <c r="B5" t="n">
         <v>90830</v>
@@ -1038,10 +1038,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>608478</v>
+        <v>608511</v>
       </c>
       <c r="R5" t="n">
-        <v>7225440</v>
+        <v>7225463</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1104,10 +1104,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>112381899</v>
+        <v>112381887</v>
       </c>
       <c r="B6" t="n">
-        <v>89573</v>
+        <v>90830</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1120,21 +1120,21 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>5442</v>
+        <v>2059</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Tallticka</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Porodaedalea pini</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Brot.) Murrill</t>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1144,10 +1144,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>608138</v>
+        <v>608478</v>
       </c>
       <c r="R6" t="n">
-        <v>7225544</v>
+        <v>7225440</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1210,10 +1210,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>112381884</v>
+        <v>112381885</v>
       </c>
       <c r="B7" t="n">
-        <v>77650</v>
+        <v>90830</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1226,21 +1226,21 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>6425</v>
+        <v>2059</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1250,10 +1250,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>608527</v>
+        <v>608518</v>
       </c>
       <c r="R7" t="n">
-        <v>7225507</v>
+        <v>7225539</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1316,10 +1316,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>112381883</v>
+        <v>112381899</v>
       </c>
       <c r="B8" t="n">
-        <v>90830</v>
+        <v>89573</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1332,21 +1332,21 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>2059</v>
+        <v>5442</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Tallticka</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Porodaedalea pini</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(Brot.) Murrill</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1356,10 +1356,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>608511</v>
+        <v>608138</v>
       </c>
       <c r="R8" t="n">
-        <v>7225463</v>
+        <v>7225544</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
